--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 5 (43, 19, 11, 17, 31)/Ableson 5 (20, 47, 6, 28, 3)/NCDE_32nodes_Uniform0.05Virtual_Nelson(43, 19, 11, 17, 31)_Ableson(20, 47, 6, 28, 3)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 5 (43, 19, 11, 17, 31)/Ableson 5 (20, 47, 6, 28, 3)/NCDE_32nodes_Uniform0.05Virtual_Nelson(43, 19, 11, 17, 31)_Ableson(20, 47, 6, 28, 3)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.6851596744555493</v>
+        <v>0.6848072082125213</v>
       </c>
       <c r="E2">
-        <v>0.6851596744555493</v>
+        <v>0.6848072082125213</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.01611948419220017</v>
+        <v>0.01612535653683595</v>
       </c>
       <c r="E3">
-        <v>0.01611948419220017</v>
+        <v>0.01612535653683595</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9611999285984637</v>
+        <v>0.961336995562868</v>
       </c>
       <c r="E4">
-        <v>0.9611999285984637</v>
+        <v>0.961336995562868</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.0005137996051158758</v>
+        <v>0.0005118484100462969</v>
       </c>
       <c r="E5">
-        <v>0.0005137996051158758</v>
+        <v>0.0005118484100462969</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.2745588208065284</v>
+        <v>0.2749186407203411</v>
       </c>
       <c r="E6">
-        <v>0.2745588208065284</v>
+        <v>0.2749186407203411</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9942872526968248</v>
+        <v>0.704769956107055</v>
       </c>
       <c r="E7">
-        <v>0.00571274730317517</v>
+        <v>0.295230043892945</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9934969525101367</v>
+        <v>0.9999888348168271</v>
       </c>
       <c r="E8">
-        <v>0.006503047489863301</v>
+        <v>1.116518317290094E-05</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9994565891903386</v>
+        <v>0.9798358955062828</v>
       </c>
       <c r="E9">
-        <v>0.0005434108096613599</v>
+        <v>0.02016410449371719</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.993395268853266</v>
+        <v>0.9999999998040126</v>
       </c>
       <c r="E10">
-        <v>0.006604731146733989</v>
+        <v>1.95987448492474E-10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9990374179903312</v>
+        <v>0.9999622489972166</v>
       </c>
       <c r="E11">
-        <v>0.0009625820096688109</v>
+        <v>3.775100278335941E-05</v>
       </c>
       <c r="F11">
-        <v>0.4763149321079254</v>
+        <v>0.5115985870361328</v>
       </c>
       <c r="G11">
         <v>0.8</v>
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.8803136101835994</v>
+        <v>0.8812832669563396</v>
       </c>
       <c r="E12">
-        <v>0.8803136101835994</v>
+        <v>0.8812832669563396</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.001394170518036835</v>
+        <v>0.001392269867387415</v>
       </c>
       <c r="E13">
-        <v>0.001394170518036835</v>
+        <v>0.001392269867387415</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.9924491706973708</v>
+        <v>0.9922877528399561</v>
       </c>
       <c r="E14">
-        <v>0.9924491706973708</v>
+        <v>0.9922877528399561</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.0001510337974514964</v>
+        <v>0.0001515278738051976</v>
       </c>
       <c r="E15">
-        <v>0.0001510337974514964</v>
+        <v>0.0001515278738051976</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.07376781842605119</v>
+        <v>0.07286610765347773</v>
       </c>
       <c r="E16">
-        <v>0.07376781842605119</v>
+        <v>0.07286610765347773</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9999670624192678</v>
+        <v>0.8837349422351977</v>
       </c>
       <c r="E17">
-        <v>3.293758073219522E-05</v>
+        <v>0.1162650577648023</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.9999667284551917</v>
+        <v>0.9999999995212407</v>
       </c>
       <c r="E18">
-        <v>3.327154480825545E-05</v>
+        <v>4.78759254463057E-10</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.9999960235966263</v>
+        <v>0.9995232383001091</v>
       </c>
       <c r="E19">
-        <v>3.976403373684434E-06</v>
+        <v>0.0004767616998908597</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.9999662781739034</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>3.372182609662211E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,13 +731,13 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9999895134154007</v>
+        <v>0.9999999999994542</v>
       </c>
       <c r="E21">
-        <v>1.048658459934515E-05</v>
+        <v>5.45785638905727E-13</v>
       </c>
       <c r="F21">
-        <v>0.7087268829345703</v>
+        <v>0.7197238206863403</v>
       </c>
       <c r="G21">
         <v>0.8</v>
